--- a/biology/Histoire de la zoologie et de la botanique/Jules_de_Seynes/Jules_de_Seynes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules_de_Seynes/Jules_de_Seynes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules de Seynes, né à Lyon le 16 janvier 1833 et mort à Paris le 18 octobre 1912, est un botaniste et mycologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur es sciences à la Faculté de Montpellier en 1860 et agrégé d'histoire naturelle de la faculté de Paris en 1863, il devient professeur et maître de conférence à la Faculté de médecine de Paris.
 Un des fondateurs de la Société botanique de France en 1854, il en est président en 1877 et 1887. Il préside le Congrès international de botanique de 1900 se déroulant à Paris.
@@ -545,13 +559,49 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1887. La moisissure de l'ananas. 5 pp.
 1875. On Agaricus ascophorus Peck. 5 pp.
-1860. Étude sur l'absorption gastro-intestinale
-Ouvrages
-m.h. Baillon, j. de Seynes, j. de Lanessan, e. Mussat, w. Nylander, e. Tison, j. Poisson, e. Fournier, l. Soubeiran, h. Bocquillon, g. Dutailly, e. Bureau, ch. Manoury, h.-a. Weddell, b. de Montgazon, l. Durand, a. Franchet. 1891. Dictionnaire de botanique. Ed. Hachette. iii + 340 pp.
+1860. Étude sur l'absorption gastro-intestinale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jules_de_Seynes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jules_de_Seynes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>m.h. Baillon, j. de Seynes, j. de Lanessan, e. Mussat, w. Nylander, e. Tison, j. Poisson, e. Fournier, l. Soubeiran, h. Bocquillon, g. Dutailly, e. Bureau, ch. Manoury, h.-a. Weddell, b. de Montgazon, l. Durand, a. Franchet. 1891. Dictionnaire de botanique. Ed. Hachette. iii + 340 pp.
 j. Moyen, jules de Seynes. 1889. Les Champignons: Traité élémentaire et pratique de mycologie : description des espèces utiles dangereuses remarquables. Ed. Rothschild. 20 pp.
 1888. Polypores. Volumen 2 de Recherches pour servir à l'histoire naturelle des végétaux inférieurs. Ed. G. Masson. 66 pp.
 achille Richard, Charles Martins, Jules de Seynes. 1876. Nouveaux éléments de botanique: contenant l'organographie, l'anatomie, la physiologie végétales et les caractères de toutes les familles naturelles. Ed. F. Savy. 710 pp. En línea edición de 1864
@@ -563,36 +613,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jules_de_Seynes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jules_de_Seynes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Distinction</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (12 juillet 1880)[1]</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -614,10 +634,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (12 juillet 1880)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jules_de_Seynes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jules_de_Seynes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Recherche - Base de données Léonore », sur www.leonore.archives-nationales.culture.gouv.fr (consulté le 29 mai 2024)
